--- a/resultados/precios_gpt3.xlsx
+++ b/resultados/precios_gpt3.xlsx
@@ -461,24 +461,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;" I find that word "garment" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;"
+Word: "garment"
+Class: </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>320</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -487,24 +491,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken." I find that word "divination" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken."
+Word: "divination"
+Class: </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>318</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -513,24 +521,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there." I find that word "gifts" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there."
+Word: "gifts"
+Class: </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>302</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -539,24 +551,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."" I find that word "strength" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart.""
+Word: "strength"
+Class: </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>329</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -565,24 +581,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ." I find that word "voices" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ."
+Word: "voices"
+Class: </t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -591,24 +611,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?" I find that word "rage" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?"
+Word: "rage"
+Class: </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>307</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8">
@@ -617,24 +641,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh." I find that word "Sabbaths" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh."
+Word: "Sabbaths"
+Class: </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -643,24 +671,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Neither have we inheritance in the son of Jesse!" I find that word "Jesse" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Neither have we inheritance in the son of Jesse!"
+Word: "Jesse"
+Class: </t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>291</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -669,24 +701,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's." I find that word "animals" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's."
+Word: "animals"
+Class: </t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>318</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -695,24 +731,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Don't be desirous of his dainties, since they are deceitful food." I find that word "dainties" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Don't be desirous of his dainties, since they are deceitful food."
+Word: "dainties"
+Class: </t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>301</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
@@ -721,24 +761,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "The floods have lifted up, Yahweh, the floods have lifted up their voice." I find that word "voice" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "The floods have lifted up, Yahweh, the floods have lifted up their voice."
+Word: "voice"
+Class: </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>298</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -747,24 +791,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "He has walled up my way so that I can't pass, and has set darkness in my paths." I find that word "darkness" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "He has walled up my way so that I can't pass, and has set darkness in my paths."
+Word: "darkness"
+Class: </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>303</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
@@ -773,24 +821,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!"" I find that word "behold" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!""
+Word: "behold"
+Class: </t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>309</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -799,24 +851,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering." I find that word "camp" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering."
+Word: "camp"
+Class: </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16">
@@ -825,24 +881,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them." I find that word "bonds" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them."
+Word: "bonds"
+Class: </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>333</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
@@ -851,24 +911,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Teach me your statutes." I find that word "statutes" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Teach me your statutes."
+Word: "statutes"
+Class: </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>282</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -877,24 +941,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "They talk about laying snares secretly." I find that word "snares" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "They talk about laying snares secretly."
+Word: "snares"
+Class: </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>291</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -903,24 +971,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "But he who prophesies speaks to men for their edification, exhortation, and consolation." I find that word "exhortation" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "But he who prophesies speaks to men for their edification, exhortation, and consolation."
+Word: "exhortation"
+Class: </t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>303</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -929,24 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence." I find that word "River" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence."
+Word: "River"
+Class: </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>317</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -955,24 +1031,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "They are a perverse and crooked generation." I find that word "generation" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "They are a perverse and crooked generation."
+Word: "generation"
+Class: </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -981,24 +1061,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants." I find that word "dainties" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants."
+Word: "dainties"
+Class: </t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>318</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -1007,24 +1091,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Wives, be in subjection to your husbands, as is fitting in the Lord." I find that word "subjection" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Wives, be in subjection to your husbands, as is fitting in the Lord."
+Word: "subjection"
+Class: </t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>299</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -1033,24 +1121,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit." I find that word "perverseness" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit."
+Word: "perverseness"
+Class: </t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>325</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -1059,24 +1151,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Multiply like grasshoppers." I find that word "grasshoppers" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Multiply like grasshoppers."
+Word: "grasshoppers"
+Class: </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>290</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
@@ -1085,24 +1181,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck," I find that word "signet" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck,"
+Word: "signet"
+Class: </t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>320</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -1111,24 +1211,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "For he will deliver you from the snare of the fowler, and from the deadly pestilence." I find that word "snare" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "For he will deliver you from the snare of the fowler, and from the deadly pestilence."
+Word: "snare"
+Class: </t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D27" t="n">
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>303</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -1137,24 +1241,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister." I find that word "Asher" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister."
+Word: "Asher"
+Class: </t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D28" t="n">
         <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29">
@@ -1163,24 +1271,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread." I find that word "demons" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread."
+Word: "demons"
+Class: </t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="D29" t="n">
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
@@ -1189,24 +1301,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying," I find that word "prophet" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying,"
+Word: "prophet"
+Class: </t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="D30" t="n">
         <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1215,24 +1331,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land." I find that word "lion" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land."
+Word: "lion"
+Class: </t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="D31" t="n">
         <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>320</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -1241,24 +1361,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>I'm reading fragments from the Bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " However, no defects in axon pathfinding along the monosynaptic reflex arc or in musclespindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).". I find that word "spindle" is neutral
-###
-I'm reading fragments from the source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment " I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.". I find that word "filthiness" is easy
-###
-I'm reading fragments from the bible, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-After reading the fragment "Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals."" I find that word "Lion" is</t>
+          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
+Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
+Word: filthiness
+Class: easy
+###
+Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
+Word: spindle
+Class: neutral
+###
+Text: "Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals.""
+Word: "Lion"
+Class: </t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/precios_gpt3.xlsx
+++ b/resultados/precios_gpt3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,28 +461,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;"
-Word: "garment"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;" I find that word "garment" is</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
@@ -491,28 +488,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken."
-Word: "divination"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken." I find that word "divination" is</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
@@ -521,28 +515,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there."
-Word: "gifts"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "You have received gifts among men, yes, among the rebellious also, that Yah God might dwell there." I find that word "gifts" is</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>204</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -551,28 +542,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart.""
-Word: "strength"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Therefore he poured the fierceness of his anger on him, and the strength of battle; and it set him on fire all around, but he didn't know; and it burned him, but he didn't take it to heart."" I find that word "strength" is</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>231</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6">
@@ -581,28 +569,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ."
-Word: "voices"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "The seventh angel sounded, and great voices in heaven followed, saying, "The kingdom of the world has become the Kingdom of our Lord, and of his Christ." I find that word "voices" is</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
@@ -611,28 +596,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?"
-Word: "rage"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "who by the mouth of your servant, David, said, 'Why do the nations rage, and the peoples plot a vain thing?" I find that word "rage" is</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>209</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
@@ -641,28 +623,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh."
-Word: "Sabbaths"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "'You shall keep my Sabbaths, and reverence my sanctuary; I am Yahweh." I find that word "Sabbaths" is</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>202</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -671,28 +650,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Neither have we inheritance in the son of Jesse!"
-Word: "Jesse"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Neither have we inheritance in the son of Jesse!" I find that word "Jesse" is</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>193</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10">
@@ -701,28 +677,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's."
-Word: "animals"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Only the firstborn among animals, which is made a firstborn to Yahweh, no man may dedicate it; whether an ox or sheep, it is Yahweh's." I find that word "animals" is</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
@@ -731,28 +704,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Don't be desirous of his dainties, since they are deceitful food."
-Word: "dainties"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Don't be desirous of his dainties, since they are deceitful food." I find that word "dainties" is</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>198</v>
+        <v>333</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
@@ -761,28 +731,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "The floods have lifted up, Yahweh, the floods have lifted up their voice."
-Word: "voice"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "The floods have lifted up, Yahweh, the floods have lifted up their voice." I find that word "voice" is</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
@@ -791,28 +758,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "He has walled up my way so that I can't pass, and has set darkness in my paths."
-Word: "darkness"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "He has walled up my way so that I can't pass, and has set darkness in my paths." I find that word "darkness" is</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>205</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +785,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!""
-Word: "behold"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Now, behold, the hand of the Lord is on you, and you will be blind, not seeing the sun for a season!"" I find that word "behold" is</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>211</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15">
@@ -851,28 +812,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering."
-Word: "camp"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "But the flesh of the bull, and its skin, and its dung, you shall burn with fire outside of the camp: it is a sin offering." I find that word "camp" is</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>214</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
@@ -881,28 +839,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them."
-Word: "bonds"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "But if her husband altogether hold his peace at her from day to day, then he establishes all her vows, or all her bonds, which are on her: he has established them, because he held his peace at her in the day that he heard them." I find that word "bonds" is</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17">
@@ -911,28 +866,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Teach me your statutes."
-Word: "statutes"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Teach me your statutes." I find that word "statutes" is</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>189</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18">
@@ -941,28 +893,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "They talk about laying snares secretly."
-Word: "snares"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They talk about laying snares secretly." I find that word "snares" is</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>193</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19">
@@ -971,28 +920,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "But he who prophesies speaks to men for their edification, exhortation, and consolation."
-Word: "exhortation"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "But he who prophesies speaks to men for their edification, exhortation, and consolation." I find that word "exhortation" is</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>205</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20">
@@ -1001,28 +947,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence."
-Word: "River"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Then Tattenai, the governor beyond the River, Shetharbozenai, and their companions, because Darius the king had sent a decree, did accordingly with all diligence." I find that word "River" is</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>219</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21">
@@ -1031,28 +974,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "They are a perverse and crooked generation."
-Word: "generation"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They are a perverse and crooked generation." I find that word "generation" is</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22">
@@ -1061,28 +1001,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants."
-Word: "dainties"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Then let our faces be looked on before you, and the face of the youths who eat of the king's dainties; and as you see, deal with your servants." I find that word "dainties" is</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
@@ -1091,28 +1028,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Wives, be in subjection to your husbands, as is fitting in the Lord."
-Word: "subjection"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Wives, be in subjection to your husbands, as is fitting in the Lord." I find that word "subjection" is</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>201</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
@@ -1121,28 +1055,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit."
-Word: "perverseness"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Yahweh has mixed a spirit of perverseness in the midst of her; and they have caused Egypt to go astray in all of its works, like a drunken man staggers in his vomit." I find that word "perverseness" is</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>227</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -1151,28 +1082,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Multiply like grasshoppers."
-Word: "grasshoppers"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Multiply like grasshoppers." I find that word "grasshoppers" is</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>192</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26">
@@ -1181,28 +1109,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck,"
-Word: "signet"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Pharaoh took off his signet ring from his hand, and put it on Joseph's hand, and arrayed him in robes of fine linen, and put a gold chain about his neck," I find that word "signet" is</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27">
@@ -1211,28 +1136,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "For he will deliver you from the snare of the fowler, and from the deadly pestilence."
-Word: "snare"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "For he will deliver you from the snare of the fowler, and from the deadly pestilence." I find that word "snare" is</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>205</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28">
@@ -1241,28 +1163,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister."
-Word: "Asher"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "The sons of Asher: Imnah, Ishvah, Ishvi, Beriah, and Serah their sister." I find that word "Asher" is</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>208</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29">
@@ -1271,28 +1190,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread."
-Word: "demons"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They sacrificed to demons, not God, to gods that they didn't know, to new gods that came up recently, which your fathers didn't dread." I find that word "demons" is</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>214</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30">
@@ -1301,28 +1217,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying,"
-Word: "prophet"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "In the second year of Darius the king, in the sixth month, in the first day of the month, the Word of Yahweh came by Haggai, the prophet, to Zerubbabel, the son of Shealtiel, governor of Judah, and to Joshua, the son of Jehozadak, the high priest, saying," I find that word "prophet" is</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>255</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31">
@@ -1331,28 +1244,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land."
-Word: "lion"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "For the waters of Dimon are full of blood; for I will bring yet more on Dimon, a lion on those of Moab who escape, and on the remnant of the land." I find that word "lion" is</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32">
@@ -1361,28 +1271,835 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm reading fragments from some source, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult".
-Text: I will sprinkle clean water on you, and you shall be clean: from all your filthiness, and from all your idols, will I cleanse you.
-Word: filthiness
-Class: easy
-###
-Text: However, no defects in axon pathfinding along the monosynaptic reflex arc or in muscle spindle differentiation have been noted in PV KO mice, which develop normally and show no apparent changes in their behavior or physical activity (Schwaller et al. 1999).
-Word: spindle
-Class: neutral
-###
-Text: "Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals.""
-Word: "Lion"
-Class: </t>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Behold, the Lion who is of the tribe of Judah, the Root of David, has overcome; he who opens the book and its seven seals."" I find that word "Lion" is</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>214</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "to offer burnt offerings to Yahweh on the altar of burnt offering continually morning and evening, even according to all that is written in the law of Yahweh, which he commanded to Israel;" I find that word "altar" is</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>353</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Yahweh spoke to Moses, saying," I find that word "Moses" is</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>323</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "He explained to them, testifying about the Kingdom of God, and persuading them concerning Jesus, both from the law of Moses and from the prophets, from morning until evening." I find that word "prophets" is</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>349</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "There was no deliverer, because it was far from Sidon, and they had no dealings with any man; and it was in the valley that lies by Beth Rehob." I find that word "deliverer" is</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>352</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They shall dwell securely therein; yes, they shall build houses, and plant vineyards, and shall dwell securely, when I have executed judgments on all those who do them despite all around them; and they shall know that I am Yahweh their God." I find that word "vineyards" is</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>365</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Who may ascend to Yahweh's hill?" I find that word "hill" is</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>322</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Jehiel, and Azaziah, and Nahath, and Asahel, and Jerimoth, and Jozabad, and Eliel, and Ismachiah, and Mahath, and Benaiah, were overseers under the hand of Conaniah and Shimei his brother, by the appointment of Hezekiah the king, and Azariah the ruler of God's house." I find that word "appointment" is</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>397</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Damascus has grown feeble, she turns herself to flee, and trembling has seized on her: anguish and sorrows have taken hold of her, as of a woman in travail." I find that word "travail" is</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>352</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "For he was a good man, and full of the Holy Spirit and of faith, and many people were added to the Lord." I find that word "faith" is</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>338</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They said to him, "The things concerning Jesus, the Nazarene, who was a prophet mighty in deed and word before God and all the people;" I find that word "Nazarene" is</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>346</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Nebuchadnezzar the king of Babylon has devoured me, he has crushed me, he has made me an empty vessel, he has, like a monster, swallowed me up, he has filled his maw with my delicacies; he has cast me out." I find that word "delicacies" is</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>371</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "He brought me into the inner court of Yahweh's house; and see, at the door of Yahweh's temple, between the porch and the altar, were about twenty-five men, with their backs toward Yahweh's temple, and their faces toward the east; and they were worshipping the sun toward the east." I find that word "backs" is</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>381</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "The mirth of tambourines ceases." I find that word "tambourines" is</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>325</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Like a fluttering sparrow, like a darting swallow, so the undeserved curse doesn't come to rest." I find that word "curse" is</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>337</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "He killed it; and Moses sprinkled the blood around on the altar." I find that word "blood" is</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>326</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They brought it to Jesus." I find that word "Jesus" is</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>318</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Speak to Aaron, and to his sons, and to all the children of Israel, and say to them: 'This is the thing which Yahweh has commanded," I find that word "Israel" is</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>347</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Ah, the uproar of many peoples, who roar like the roaring of the seas; and the rushing of nations, that rush like the rushing of mighty waters!" I find that word "Ah" is</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>344</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "At the dedication of the wall of Jerusalem they sought the Levites out of all their places, to bring them to Jerusalem, to keep the dedication with gladness, both with giving thanks, and with singing, with cymbals, stringed instruments, and with harps." I find that word "instruments" is</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>370</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They have been informed about you, that you teach all the Jews who are among the Gentiles to forsake Moses, telling them not to circumcise their children neither to walk after the customs." I find that word "Jews" is</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>351</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Neither is it in our power to help it; for other men have our fields and our vineyards."" I find that word "vineyards" is</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>334</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "If I send them away fasting to their home, they will faint on the way, for some of them have come a long way."" I find that word "home" is</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>339</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "who brings princes to nothing; who makes the judges of the earth like meaningless." I find that word "judges" is</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>329</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "Shall the prey be taken from the mighty, or the lawful captives be delivered?" I find that word "prey" is</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>330</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "The patriarchs, moved with jealousy against Joseph, sold him into Egypt." I find that word "patriarchs" is</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>329</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "For what the law couldn't do, in that it was weak through the flesh, God did, sending his own Son in the likeness of sinful flesh and for sin, he condemned sin in the flesh;" I find that word "God" is</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>353</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "But Paul said, "I am a Jew, from Tarsus in Cilicia, a citizen of no insignificant city." I find that word "Tarsus" is</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>340</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "They said to him, "Please ask counsel of God, that we may know whether our way which we go shall be prosperous."" I find that word "counsel" is</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>340</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "For I tell you that this which is written must still be fulfilled in me: 'He was counted with transgressors.'" I find that word "transgressors" is</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>338</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>I'm reading fragments from some source such as: bible, biomed and europarl, and some words are not easy to understand. I'm classifying these words into "very easy", "easy", "neutral", "difficult" and "very difficult". The sentence is "neutral" when it is neither "very easy", nor "easy", nor "difficult", nor "very difficult".
+Several examples are:
+The following fragment comes from the "bible" and after reading the fragment " At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God; ". I find that word "garment" is easy
+###
+The following fragment comes from the "biomed" and after reading the fragment " Expression of pendrinm RNA in the inner ear has been found in several places including the cochlea, the vestibular labyrinth and the endolymphatic sac [8]. " I find that word "Expression" is neutral
+###
+The following fragment comes from the "europarl" and after reading the fragment " The struggle against global Islamic terrorism is an asymmetric war with unforeseen results and unprecedented consequences, and new jurisprudence internationally is now needed to address this. " I find that word "jurisprudence" is difficult
+###
+The following fragment comes from the bible and after reading the fragment "and might deliver all of them who through fear of death were all their lifetime subject to bondage." I find that word "subject" is</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>331</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/precios_gpt3.xlsx
+++ b/resultados/precios_gpt3.xlsx
@@ -472,17 +472,17 @@
 ###
 The following fragment comes from the "bible" and after reading the fragment " Mount Sinai, all it, smoked, because Yahweh descended on it in fire; and its smoke ascended like the smoke of a furnace, and the whole mountain quaked greatly. ". I find that word "fire" is very easy
 ###
-The following fragment comes from the bible and after reading the fragment "But he, beckoning to them with his hand to be silent, declared to them how the Lord had brought him out of the prison." I find that word "hand" is</t>
+The following fragment comes from the bible and after reading the fragment "At the evening offering I arose up from my humiliation, even with my garment and my robe torn; and I fell on my knees, and spread out my hands to Yahweh my God;" I find that word "garment" is</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
@@ -502,17 +502,17 @@
 ###
 The following fragment comes from the "bible" and after reading the fragment " Mount Sinai, all it, smoked, because Yahweh descended on it in fire; and its smoke ascended like the smoke of a furnace, and the whole mountain quaked greatly. ". I find that word "fire" is very easy
 ###
-The following fragment comes from the bible and after reading the fragment "If I forget you, Jerusalem, let my right hand forget its skill." I find that word "hand" is</t>
+The following fragment comes from the bible and after reading the fragment "It shall be to them as a false divination in their sight, who have sworn oaths to them; but he brings iniquity to memory, that they may be taken." I find that word "divination" is</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
